--- a/src/main/resources/template/excel/export/DeliverAndStockReport.xlsx
+++ b/src/main/resources/template/excel/export/DeliverAndStockReport.xlsx
@@ -63,107 +63,83 @@
   </si>
   <si>
     <t>要货与库存报表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>商品名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>机构编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>机构名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>货号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>条码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>规格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>要货数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>要货金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>库存数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>库存金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>缺货数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>补货数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>进货规格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>配送规格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>供应商名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>类别名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H3:H3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(I3:I3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(J3:J3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(K3:K3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(L3:L3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(M3:M3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.branchName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.branchCode}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -189,7 +165,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -215,23 +191,23 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.barCode}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.spec}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.unit}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.deliverNum}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -257,7 +233,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -273,7 +249,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -289,7 +265,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -305,7 +281,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -321,7 +297,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -337,7 +313,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -353,7 +329,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -369,7 +345,7 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -385,7 +361,31 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I3:I3:I3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(L3:L3:L3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,13 +430,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -862,7 +855,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,55 +947,55 @@
     </row>
     <row r="3" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1016,22 +1009,22 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1138,7 +1131,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
